--- a/finetuning/it_datasets/it_dataset/it_manouba_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_manouba_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out CAFE'IN located at 59 Ave Habib Bourguiba, Manouba 2010. This top-rated destination is perfect for Cafe des arts lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/CAFE%27IN/data=!4m7!3m6!1s0x12fd3353de8ff511:0xd03569dff138b644!8m2!3d36.815!4d10.1008747!16s%2Fg%2F11j0bgfycs!19sChIJEfWP3lMz_RIRRLY48d9pNdA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 565 150.</t>
+          <t>CAFE'IN is a "Cafe des Arts" located in Manouba, at the address: 59 Ave Habib Bourguiba. Its coordinates are: (36.809795648325, 10.093575836048) and the phone number is: 24 565 150. The opening hours are: from 6 AM to 11 PM.</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Belgacem located at Belgacem, Manouba Douar hicher, 2086. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8285666, 10.1008111. For more details, call them at 24 244 392.</t>
+          <t>Belgacem is a restaurant located in Manouba, Tunisia. It scored 4.0 out of 5 with 1 review. It offers a variety of dishes in a friendly and welcoming atmosphere. The restaurant can be contacted by phone at +24 244 392.</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out CAFE'IN located at 59 Ave Habib Bourguiba, Manouba 2010. This top-rated destination is perfect for mqh~ fny lovers and offers a range of mqh~ fny to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 6S-11m, but closed on []. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website or call them at 24 565 150.</t>
+          <t>CAFE'IN is a trendy café located in the Manouba neighborhood, offering a cozy ambiance and a variety of coffee drinks. Situated at 59 Ave Habib Bourguiba, it's easily accessible and has a 4.0 rating based on reviews. It's open 6 days a week from 6 am to 11 pm, except on Sundays.</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in manouba, visit La perla, a boutique located at La perla, Manouba. This top-rated destination is perfect for Cafe lovers and offers Cafe category. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 16.266399, -61.5053356. For more details, visit their website at nan or call them at 23 491 148.</t>
+          <t>La perla is a boutique in Manouba , Tunisia. It offers luxury lingerie, sleepwear, loungewear, and bridal collections. Located at (16.266399, -61.5053356), the boutique is open from 6 AM to 10 PM, with a 4.0 rating based on 10 reviews.</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a great cafe, check out Cafe Fethi located at R3FF+G28 Cafe Fethi, Manouba. This top-rated cafe is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-20:00, but closed on none. To get there, use these GPS coordinates: 36.8238114, 10.0726181. For more details, visit their website at none or call them at none.</t>
+          <t>Cafe Fethi is a 5.0 stars cafe located in Manouba, Tunisia. It's open every day from 6am to 8pm and offers a variety of food and drinks. Cafe Fethi is located at the following address in Manouba, Tunisia: R3FF+G28 Cafe Fethi, Manouba. The cafe's latitude and longitude are 36.8238114 and 10.0726181 respectively.</t>
         </is>
       </c>
     </row>
@@ -1153,9 +1153,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a great cafe, check out cafe boudhina located at 50 avenue habib bourguiba ,oued ellil, Manouba. 
-This top-rated destination is perfect for cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.835775161769, 9.94138318666. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+boudhina/data=!4m7!3m6!1s0x12fd2deb467c5dd7:0xcf2a1bad6caf3534!8m2!3d36.8323643!4d10.0399399!16s%2Fg%2F11frxzcp69!19sChIJ1118Rust_RIRNDWvbK0bKs8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Cafe Boudhina** is a popular cafe located at 50 avenue habib bourguiba, oued ellil, Manouba (36.835775161769, 9.94138318666). It offers a pleasant ambiance and serves a variety of beverages and snacks.</t>
         </is>
       </c>
     </row>
@@ -1254,10 +1252,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a delicious cup of coffee, head to Hamdi Coffee, located at Faculty Road Bjewa, Manouba, Bjewa 2021. 
-This top-rated cafe is a must-visit spot for coffee lovers, offering a range of coffee drinks to choose from. 
-With an impressive rating of 5.0, it's sure to satisfy your caffeine cravings. It is open daily, but the hours of operation may vary, so it's best to call ahead. 
-For more details, you can call them at 23 494 867.</t>
+          <t>Hamdi Coffee is a cafe located in Manouba, Tunisia. It has a rating of 5/5 and offers a variety of coffee drinks. The cafe is owned by Hamdi Coffee and is located at the coordinates 36.8327917, 10.041396.</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1355,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Universitaire de La Manouba located at R398+82 Universitaire de La Manouba, Campus Universitaire de La Manouba, Cite Nasr 2010. This top-rated destination is perfect for Universite lovers. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.8124087, 10.0674471. For more details, visit their website at http://www.uma.rnu.tn/ or call them at 71 601 499.</t>
+          <t>Nestled in the heart of Manouba, Tunisia, Universitaire de La Manouba stands out as a renowned university (latitude: 36.8124087, longitude: 10.0674471). With its convenient location within the Campus Universitaire de La Manouba and the main road R398+82, this institution offers a well-rounded academic experience.</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1454,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a top-rated seafood restaurant, check out Resto marino located at R439+FMV Resto marino, P5, Manouba. With a rating of 5.0, it's a must-visit spot for seafood lovers. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/Resto+marino/data=!4m7!3m6!1s0x12fd3389eb47ec4b:0x8bc20072f7e160d4!8m2!3d36.8038822!4d10.1192281!16s%2Fg%2F11s4x4pkmj!19sChIJS-xH64kz_RIR1GDh93IAwos?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 025 739.</t>
+          <t>Resto Marino, located in Manouba (coordinates: 36.812374, 10.0930597), is a renowned seafood restaurant offering a delightful culinary experience. With a perfect 5.0 rating and 1 review, Resto Marino has established itself as a top choice for seafood enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -1566,9 +1561,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Palais Kobbet Ennhas located at R35V+WHQ Palais Kobbet Ennhas, 53 Ave Habib Bourguiba, Manouba 2010. 
-This top-rated destination is perfect for Site historique and Chapelle de mariage lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-12:00, 13:30-16:30, but closed on dimanche. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.palaiskobbetennhas.com/ or call them at 70 615 888.</t>
+          <t>Palais Kobbet Ennhas is a historical site and wedding chapel located in Manouba, Tunisia. With a rating of 4.3 out of 5, it offers a magnificent space for organizing ceremonies and events. It is situated at the coordinates (36.809795648325, 10.093575836048) and is open from 09:00-12:00 and 13:30-16:30 all days except Sundays. For more information, visit their website at https://www.palaiskobbetennhas.com/ or call at 70 615 888.</t>
         </is>
       </c>
     </row>
@@ -1671,9 +1664,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in manouba, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee,Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundis. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>In Manouba, Tunisia, the Musee National Militaire is located at coordinates (36.809795648325, 10.093575836048). It offers insights into Tunisia's military history through exhibits showcasing weapons and artifacts, and provides tours detailing past conflicts and important figures. The museum is open from 9 AM to 4 PM Tuesday through Sunday, except Mondays.</t>
         </is>
       </c>
     </row>
@@ -1768,8 +1759,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Manouba, Palais El-Warda is a top-rated metro station located at Palais El-Warda, Manouba 2010. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.816395539235, 10.084606274771.</t>
+          <t>Located in Manouba at the coordinates (36.816395539235, 10.084606274771), Palais El-Warda is a metro station that has received a 4.5-star rating from 6 reviews. The station falls under the main category of "Station de metro" and currently has no owner information available.</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1862,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for an interesting museum to explore, visit Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. With a rating of 4.6, it's a top-rated spot. It's open during these hours: 09:00-16:00, but closed on Mondays.</t>
+          <t>The Musee National Militaire is located in Manouba, and offers a comprehensive history of military conflicts in Tunisia. This building was built in 1989 over an area of 12 hectares and has been open to the public since 1991. The collections depict the military apparatus of the Tunisian army over the last two centuries, showcasing weapons, costumes, decorations, and military equipment. Additionally, the museum hosts a variety of cultural events, such as exhibitions and conferences.</t>
         </is>
       </c>
     </row>
@@ -1975,9 +1965,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>Musée National Militaire, right in the heart of Manouba, is dedicated to showcasing Tunisia's rich military history. Replete with an astounding collection of weaponry, uniforms, and other military memorabilia, the museum's exhibits trace the evolution of this nation's defense forces. Its convenient location at 53 Ave Habib Bourguiba makes it readily accessible for history buffs.</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2068,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, call them at 70 604 018.</t>
+          <t>The Musee National Militaire houses a collection of military artifacts and documents telling the story of Tunisia's military past. Housed in a grand palace, the museum features displays on various wars and conflicts, weapons, and military history. Guided tours are available to provide insights into the significance of the exhibits.</t>
         </is>
       </c>
     </row>
@@ -2183,11 +2171,8 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a fantastic museum experience, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba. 
-This top-rated destination is perfect for Musee lovers and has a rating of 4.6 out of 5 stars. 
-It's open during these hours: 09:00-16:00, but closed on Mondays, so plan your visit accordingly. 
-To get there, you can use this GPS coordinates: 36.809795648325, 10.093575836048. 
-For more details, call them at 70 604 018.</t>
+          <t>Located in Manouba, Musee National Militaire is a historical museum that showcases Tunisia's military history. It houses a vast collection of arms, uniforms, and war memorabilia, offering visitors an immersive experience into the country's past conflicts. The museum's unique setting within a former palace adds to its architectural charm.
+The museum hosts guided tours that provide in-depth insights into the history of Tunisian military and the significance of the exhibits. With its convenient location and educational offerings, Musee National Militaire is an ideal destination for history buffs and anyone interested in exploring Tunisia's cultural heritage.</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2275,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in manouba and seeking an enriching cultural experience, head to Musee National Militaire, located at 53 Ave Habib Bourguiba. As a top-rated museum with a 4.6 rating, it's a must-visit spot for history enthusiasts and culture lovers alike. You can immerse yourself in military history and explore a range of captivating exhibits. The museum is open from 09:00-16:00 during weekdays, except for Mondays. To get there, use GPS coordinates (36.809795648325, 10.093575836048) or call 70 604 018 for any queries.</t>
+          <t>The Military National Museum of Manouba is located in Tunisia and proposes a historical journey through military history. This attraction offers many insights into the country's military history and displays ancient weaponry, uniforms, and vehicles. It is a great place to learn about Tunisia's military history and see some impressive artifacts. The museum is also located in a beautiful palace, which is worth a visit in its own right.</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2378,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on Monday. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>The National Military Museum is located in Manouba, Tunisia, showcasing the country's military history. Situated at 53 Habib Bourguiba Avenue, it features exhibits on military achievements and conflicts. The museum is open from 9:00 AM to 4:00 PM daily, except for Mondays, and admission typically requires a fee. It is renowned for its collection of weapons, military equipment, and historical artifacts.</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2481,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a captivating museum to explore, visit the Musee National Militaire at 53 Ave Habib Bourguiba, Manouba. This top-rated destination showcases Tunisia's military history and offers a range of exhibits on various wars and conflicts. With a rating of 4.6, it's a must-visit spot for history enthusiasts. It's open Tuesdays through Sundays from 09:00-16:00. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website or call 70 604 018.</t>
+          <t>Musee National Militaire is a museum in Manouba, Tunisia, located at 36.809795648325, 10.093575836048. It receives 4.6 rating out of 5 from its 140 reviews and is open from 09:00-16:00 every day except Monday. The museum focuses on military history, with exhibits on weapons, wars, and the history of Tunisia. The museum is housed in a palace and is known for its architecture.</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2584,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>The Musée National Militaire is a museum located in Manouba, Tunisia, that showcases and preserves Tunisia's military history. The museum is housed in a historic palace, and displays a collection of artifacts and exhibits that tell the story of Tunisia's military from ancient times to the present day. Exhibits focus on military history, with a focus on arms and military equipment. The museum also has a collection of historical documents and photographs.</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2675,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Underground workshop located at Q3XQ+7H2 Underground workshop, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/Underground+workshop/data=!4m7!3m6!1s0x12fd320e86b0e3bf:0xbf7f64309045edda!8m2!3d36.7981292!4d10.0889052!16s%2Fg%2F11f03vv6hl!19sChIJv-Owhg4y_RIR2u1FkDBkf78?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Underground Workshop is a museum located in Manouba, Tunisia. It offers a unique experience to visitors, with its focus on showcasing the history and culture of the region. The museum is situated at the coordinates (36.812374, 10.0930597), making it easily accessible to tourists and locals alike.</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2778,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a fun and educational outing, check out Musee National Militaire located at 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for history and military buffs, offering a range of exhibits to explore. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on Mondays. For more details, visit the website or call 70 604 018.</t>
+          <t>The Musee National Militaire is a museum in Manouba, Tunisia, dedicated to military history. It is located in a palace that was built in 1984 and houses a collection of weapons, uniforms, and other artifacts from Tunisian military history. The museum also offers guided tours of its exhibits.</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2873,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in manouba, check out Palais El-Warda located at Palais El-Warda, Manouba 2010. This top-rated destination is perfect for those who love Station de metro and offers a range of Station de metro options to choose from. With a rating of 4.5, it's a must-visit spot. The GPS coordinates are (36.816395539235, 10.084606274771).</t>
+          <t>Palais El-Warda is a metro station located in Manouba, Tunisia. It is a popular destination for tourists and locals alike, offering easy access to the city center and surrounding areas. The station is conveniently located near several landmarks, including the Medina of Tunis, the Kasbah of Tunis, and the Cathedral of St. Vincent de Paul.</t>
         </is>
       </c>
     </row>
@@ -2979,10 +2964,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Underground workshop located at Q3XQ+7H2 Underground workshop, Manouba. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.812374, 10.0930597.</t>
+          <t>The Underground Workshop is a museum located in Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It has received a 5.0 rating from a single review.</t>
         </is>
       </c>
     </row>
@@ -3085,9 +3067,8 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a great museum, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from, including Musee and Attraction touristique. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>**Musée National Militaire**
+Located in Manouba, Musée National Militaire is a fascinating destination that showcases the rich military history of Tunisia. Nestled amidst the grandeur of the Habib Bourguiba Palace, it boasts a comprehensive collection of weaponry, uniforms, and artifacts that narrate the country's military past from ancient times to contemporary conflicts. Open from 9 am to 4 pm daily, the museum provides a unique glimpse into the country's defense and heritage. Visitors can delve into the history of military campaigns, explore the architectural splendor of the palace, and discover the stories of Tunisia's brave soldiers.</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3171,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website or call them at 70 604 018.</t>
+          <t>The Musée National Militaire is a military museum located in Manouba, Tunisia. The museum is housed in a historic palace that was built in the 19th century. The museum's collection includes a variety of military artifacts, including weapons, uniforms, and vehicles. The museum also has a library and a research center.
+The Musée National Militaire is a popular tourist destination. The museum is open to the public from Tuesday to Sunday, from 9:00 AM to 4:00 PM. The museum is closed on Mondays.
+The Musée National Militaire is located at the following address:
+Musee National Militaire
+53 Ave Habib Bourguiba 2010, Tunisia
++216 70 604 018</t>
         </is>
       </c>
     </row>
@@ -3293,9 +3279,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba. 
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>The Musée National Militaire, located in the heart of Manouba, is a treasure trove of Tunisian military history and culture. Situated in a grand palace, it boasts a remarkable collection of weapons, uniforms, and artifacts that trace the country's rich military heritage from ancient times to modern conflicts. Visitors can explore the museum's various halls and exhibits, each providing insights into the key battles, wars, and personalities that shaped Tunisia's military history. The museum is easily accessible, just a short distance from the city center and offers guided tours for an immersive and educational experience.</t>
         </is>
       </c>
     </row>
@@ -3398,9 +3382,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee,Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>The Musée National Militaire in Manouba, Tunisia is a place of great historical significance, showcasing military artifacts, weapons, and uniforms from different eras. Located at the coordinates (36.809795648325, 10.093575836048), the museum is housed in a grand palace-like building and boasts a wide range of exhibits that tell the story of Tunisia's military history. Visitors can explore galleries dedicated to the country's participation in various conflicts, including World War I and II, and gain insights into the development of Tunisia's armed forces over the years. With its informative displays, knowledgeable guides, and convenient location, the Musée National Militaire provides an immersive and educational experience for history buffs and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3473,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Underground workshop located at Q3XQ+7H2 Underground workshop, Manouba. This top-rated destination is perfect for Musee lovers. It's open with a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/Underground+workshop/data=!4m7!3m6!1s0x12fd320e86b0e3bf:0xbf7f64309045edda!8m2!3d36.7981292!4d10.0889052!16s%2Fg%2F11f03vv6hl!19sChIJv-Owhg4y_RIR2u1FkDBkf78?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Underground Workshop in Manouba is a museum showcasing Tunisia's rich culture and history. It offers a unique experience, immersing visitors in the traditional crafts and lifestyle of the country. Located at (36.812374, 10.0930597), this highly-rated destination is a must-see for tourists and history enthusiasts alike.</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3576,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>Musee National Militaire is a remarkable museum located in Manouba, Tunisia, situated at the coordinates (36.809795648325, 10.093575836048). It's a rich repository of military history, featuring an array of exhibits showcasing weapons, uniforms, and other artifacts from various conflicts. Visitors can delve into the rich history of Tunisia's military and gain insights into the nation's role in shaping the region's past.</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3679,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a fascinating museum, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for history buffs and offers a range of exhibits to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+National+Militaire/data=!4m7!3m6!1s0x12fd3268cf5e0ae9:0x7696beeed8685f21!8m2!3d36.8113948!4d10.0984958!16s%2Fg%2F120jr3v2!19sChIJ6Qpez2gy_RIRIV9o2O6-lnY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 604 018.</t>
+          <t>The Musee National Militaire is a museum located in Manouba, Tunisia, showcasing the military history of the country. It is situated at the coordinates 36.809795648325, 10.093575836048. The museum is open from 9:00 AM to 4:00 PM from Tuesday to Sunday but is closed on Mondays. The phone number to reach the museum is 70 604 018.</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3782,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, call them at 70 604 018.</t>
+          <t>The Musee National Militaire in Manouba, Tunisia, is a museum dedicated to military history. It is situated on Habib Bourguiba Avenue and has a rating of 4.6 based on 140 reviews. The museum is open from 9:00 AM to 4:00 PM every day except Mondays. Notable aspects of the museum include:
+- Exhibits on military history, including weapons, uniforms, and historical artifacts
+- A focus on the history of the Tunisian military
+- A collection of military vehicles and artillery
+- Guided tours available
+- A central location in the city</t>
         </is>
       </c>
     </row>
@@ -3903,7 +3890,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Musee National Militaire located at Musee National Militaire, 53 Ave Habib Bourguiba, Manouba. This top-rated destination is perfect for Musee lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 36.809795648325, 10.093575836048. For more details, visit their website or call them at 70 604 018.</t>
+          <t>The Musée National Militaire, located at 53 Ave Habib Bourguiba, Manouba, is a military museum in Tunisia. It showcases the military history of the country, displaying a collection of weapons, uniforms, and other artifacts. The museum is a popular tourist destination, with a 4.6-star rating based on 140 reviews.</t>
         </is>
       </c>
     </row>
@@ -4002,9 +3989,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a religious place to visit, check out Mosquee de Manouba located at Mosquee de Manouba, jm` mnwb@ lm`mwr, Manouba 2010. 
-This top-rated destination is perfect for Mosquee lovers. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 04:00-21:30. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+de+Manouba/data=!4m7!3m6!1s0x12fd327201472843:0x5f7fb685e3b32ff7!8m2!3d36.808589!4d10.0916236!16s%2Fg%2F11fy4tkk37!19sChIJQyhHAXIy_RIR9y-z44W2f18?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Nestled in the city of Manouba, the stunning Mosquée de Manouba boasts a 4.8-star rating. This renowned mosque opens its doors from 4:00 AM to 9:30 PM, welcoming visitors to immerse themselves in its spiritual atmosphere. With its convenient location at (36.8037861, 10.0653004), the mosque is easily accessible and serves as a beacon of faith for the local community.</t>
         </is>
       </c>
     </row>
@@ -4095,10 +4080,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Manouba located at R32J+F63 Manouba, Terrain, Manouba 1091. 
-This top-rated destination is perfect for Terrain de football lovers and offers a range of Terrain de football to choose from. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.812374, 10.0930597.</t>
+          <t>The Manouba football field is located in the city of Manouba, Tunisia, at coordinates (36.812374, 10.0930597). It offers a football field as its main activity and has a rating of 4.0 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -4189,11 +4171,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Terre Agricole located at Terre Agricole, Manouba. 
-This top-rated destination is perfect for Agricultural lovers and offers a range of Agricultural to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.812374, 10.0930597. 
-For more details, visit their link at https://www.google.com/maps/place/Terre+Agricole/data=!4m7!3m6!1s0x12fd325d368cd7b9:0xefd909627accae38!8m2!3d36.8134071!4d10.1048697!16s%2Fg%2F11g_jklxv!19sChIJudeMNl0y_RIROK7MemIJ2e8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Terre Agricole is a 5-star rated Agricultural place located in Manouba, Tunisia. Situated at coordinates (36.812374, 10.0930597), it offers a wide range of agricultural products and services to the local community.</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4268,11 @@
           <t>manouba</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Royale Club is a weightlifting gym (Salle d'halterophilie) located in Manouba, Tunisia, with coordinates (36.812374, 10.0930597). It has two reviews and a 4.5-star rating. Please note that the description, website, phone number, and owner information are currently unavailable.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4391,7 +4373,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a delectable dining experience, visit D &amp; M Pizza Feu De Bois. Located at Poste Garde National, this top-rated restaurant is a haven for food enthusiasts. With a rating of 4.0, it's a must-try spot. It's open from 10:00-00:00 during the week. To get there, use these GPS coordinates: 53.390000606075, -6.268599257961. For more details, visit their website or call them at 50 413 004.</t>
+          <t>D &amp; M Pizza Feu De Bois is a 4-star restaurant located in manouba, Tunisia. It has been reviewed 25 times and is open from 10:00 AM to 00:00 AM. You can contact them by phone at 50 413 004.</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4472,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a top-rated family restaurant, check out La_Granja_by_saf located at Rue De La Lumiere. This popular destination has received a rating of 4.1 and offers a range of dining options. To make a reservation or for more details, call them at 20 101 001.</t>
+          <t>La_Granja_by_saf is a Restaurant familial located in R32J+H3J La_Granja_by_saf, Rue De La Lumiere, Manouba. It has a rating of 4.1 based on 22 reviews and offers a variety of dishes. The phone number of the restaurant is 20 101 001.</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4571,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out FOOD 707 located at R444+J44 FOOD 707, Ibn Abi Dhief, Manouba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at or call them at 58 042 228.</t>
+          <t>FOOD 707 is a 4.1-rated restaurant in manouba, Tunisia located at (36.812374, 10.0930597). It specializes in pizza and offers a variety of other dining options.</t>
         </is>
       </c>
     </row>
@@ -4692,7 +4674,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Mamma mia located at R37R+PRQ Mamma mia, Manouba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/Mamma+mia/data=!4m7!3m6!1s0x12fd326554f7dce7:0x9fa8415bf195107!8m2!3d36.8143391!4d10.09212!16s%2Fg%2F11csrvvy8b!19sChIJ59z3VGUy_RIRB1EZvxWE-gk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 413 004.</t>
+          <t>Located in Manouba at the coordinates (36.812374, 10.0930597), Mamma mia is a restaurant that offers a variety of dishes, including pizza. The restaurant has received positive reviews from customers, with an average rating of 4.2.</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4777,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a top-rated spot for Restauration rapide, Rapido is the perfect choice. Located at R35V+W82 Rapido, Ave Habib Bourguiba, this popular destination has a rating of 4.3 out of 5. It's open 24 hours a day, so you can satisfy your cravings anytime. For more information, visit their website or call them at 50 413 004.</t>
+          <t>Located in Manouba, Rapido is a fast-food restaurant that offers a wide variety of dishes. It is conveniently located at R35V+W82 on Ave Habib Bourguiba, with coordinates (36.808679907959, 10.092451465359) making it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4880,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out pizzeria Amigo located at Rue el Qods, Manouba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.8115842, 10.1102748. For more details, visit their website or call them at 58 551 482.</t>
+          <t>Pizzeria Amigo is a restaurant located in manouba, Tunisia, at (36.8115842, 10.1102748). It offers a variety of pizzas and other dishes, and has a rating of 4.5 out of 5 stars based on 11 reviews. The restaurant is open 24 hours a day and can be contacted at 58 551 482.</t>
         </is>
       </c>
     </row>
@@ -5001,9 +4983,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out O BNIN located at 40 rue des travailleurs, 34 N7, Manouba.
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Restauration rapide to choose from.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-18:00, but closed on mercredi, dimanche. To get there, use these GPS coordinates: 36.815333497607, 10.102816936674. For more details, visit their website at  or call them at 22 089 000.</t>
+          <t>O BNIN is a restaurant located in Manouba, Tunisia. It offers a variety of dishes at a 5-star rating based on 9 reviews. It is on 40 rue des travailleurs, 34 N7, Manouba. Open from Monday to Saturday from 07:00-18:00, this restaurant is very well-rated.</t>
         </is>
       </c>
     </row>
@@ -5102,9 +5082,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a great Cafeteria, check out Cafeteria Walid on Ave Habib Bourguiba.
-This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria to choose from.
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-20:00, but closed on none. To get there, use these GPS coordinates: 36.812266797837, 10.09577907882.</t>
+          <t>Cafeteria Walid is a cafeteria located in Manouba, Tunisia, at the address Ave Habib Bourguiba. It offers a variety of food and beverages, and is open from 6:00am to 8:00pm daily. Customers have praised the cafeteria's friendly staff and delicious food, giving it an average rating of 4.2 out of 5 stars on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5189,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Tooka restaurant located at Tooka restaurant, 24 Habib bourguiba, Manouba 2010. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 36.809955772971, 10.093606997312. For more details, visit their website at https://tooka.tn/ or call them at 21 729 728.</t>
+          <t>Tooka Restaurant, located at 24 Habib bourguiba in Manouba (Tunisia), offers a delightful culinary experience with a 4.9-star rating based on 8 reviews. With a convenient website (https://tooka.tn/) and phone number (21 729 728), reservations are made easy. The featured image showcases the vibrant ambiance of the restaurant, while the workday timings of 10:00-23:00 ensure flexibility for diners. The coordinates (36.809955772971, 10.093606997312) provide precise location details. Discover the flavors of Tooka Restaurant today!</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5288,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>In manouba, Pizzaria Charlot is a popular Restaurant, located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe, Manouba. With a superb rating of 4.6, it's a great place for Restaurant enthusiasts. Operating hours are from 07:30-00:00 on all days of the week. To get there, simply use the GPS coordinates: (36.812374, 10.0930597).</t>
+          <t>Pizzaria Charlot is a restaurant located in Manouba, Tunisia, offering a variety of pizzas and other dishes. It is conveniently located at R452+W2P Pizzaria Charlot, Ave du Grand Margreb Arabe. The restaurant is known for its delicious food, friendly service, and reasonable prices. It is a great place to go for a casual meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5391,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something to eat, check out UNO Pizza located at Residence EL Mokhtar, Manouba. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.8150846, 10.0826309. For more details, visit their link at https://www.google.com/maps/place/UNO+Pizza/data=!4m7!3m6!1s0x12fd2daaa2e4d363:0xf5db352f26bf40d3!8m2!3d36.8174544!4d10.0797314!16s%2Fg%2F11f5tgvbbm!19sChIJY9Pkoqot_RIR00C_Ji812_U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 672 963.</t>
+          <t>UNO Pizza is a 4.5-star user-rated restaurant located at UNO Pizza, Residence EL Mokhtar, Manouba (36.8150846, 10.0826309) that mainly serves Italian cuisine. It is open 24 hours a day with a link to the featured image: https://lh5.googleusercontent.com/p/AF1QipNj4ThoGFku-9U69NDLrC6hFQBeE_FBHEHAq9Cm=w426-h240-k-no</t>
         </is>
       </c>
     </row>
@@ -5512,9 +5490,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Pizzeria, check out Pizzeria Gourmet located at R453+974 Pizzeria Gourmet, Manouba. 
-This top-rated destination is perfect for Pizzeria lovers.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 36.8084465, 10.1034734.</t>
+          <t>Pizzeria Gourmet, located in Manouba (36.8084465, 10.1034734), is a highly rated pizzeria with a 5.0 rating based on 6 reviews. Open daily from 10:00-23:00, it offers a delicious menu of pizzas in a cozy atmosphere.</t>
         </is>
       </c>
     </row>
@@ -5621,10 +5597,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a good restaurant, check out GIOSUE PIZZA located at route Oued ellil km 7 Manouba, 2010. 
-This top-rated destination serves a range of dishes and offers a cozy atmosphere for a memorable dining experience. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website 
-at https://www.instagram.com/giosue_pizza/ or call them at 25 076 021.</t>
+          <t>GIOSUE PIZZA is a restaurant located in manouba, Tunisia. It is a 4.4-star rated restaurant with 5 reviews. The restaurant is open from 10:00-22:00 and is closed on no specified days. GIOSUE PIZZA can be contacted at 01 25 076 021.</t>
         </is>
       </c>
     </row>
@@ -5727,9 +5700,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out STREET 24 Mannouba located at 24 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.809955772971, 10.093606997312. For more details, visit their website at https://www.facebook.com/Street-24-mannouba-103062681815906/ or call them at 56 481 381.</t>
+          <t>STREET 24 Mannouba is a fast food restaurant located in Manouba, Tunisia. It has a 5.0 rating on Google and offers a variety of fast food options. The restaurant is open every day of the week and is located at 24 Ave Habib Bourguiba, Manouba.</t>
         </is>
       </c>
     </row>
@@ -5832,9 +5803,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Patisserie douiri located at Q3XR+XCQ Patisserie douiri, Manouba. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-19:45. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website or call them at 23 134 544.</t>
+          <t>Patisserie douiri is a restaurant located in Manouba (coordinates: 36.812374, 10.0930597). Rated 4.7 stars, it offers a range of dining options and has received positive reviews from customers. The restaurant is open from 09:00 to 19:45 and is closed on []. To make a reservation or for more information, call 23 134 544.</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5902,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out chez salih restaurant located at 113 Ave Habib Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:15-14:00, but closed on dimanche. To get there, use these GPS coordinates: 36.814559184394, 10.099520008126. For more details, visit their website at https://www.google.com/maps/place/chez+salih+restaurant/data=!4m7!3m6!1s0x12fd3323236ed2ef:0xb4f48e633d6d40cd!8m2!3d36.8145184!4d10.0993433!16s%2Fg%2F11hhz9cl9m!19sChIJ79JuIyMz_RIRzUBtPWOO9LQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Chez Salih Restaurant is a highly-rated restaurant located in Manouba, Tunisia. It offers a range of cuisines and has received positive reviews from customers. The restaurant is situated at coordinates (36.814559184394, 10.099520008126), making it easily accessible to visitors.</t>
         </is>
       </c>
     </row>
@@ -6036,10 +6005,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a restaurant, check out MAC REGAL located on R466+G3C. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-23:30. 
-To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website or call them at 22 648 723.</t>
+          <t>MAC REGAL is a restaurant located in Manouba, Tunisia. It has a rating of 5.0 stars based on 2 reviews and is open from 09:00 to 23:30 daily. The restaurant can be found at the coordinates (36.812374, 10.0930597) and offers a variety of dining options.</t>
         </is>
       </c>
     </row>
@@ -6130,9 +6096,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Restaurant Habib pizzaria located at Avenue Khaled Ibn El Walid, Manouba. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Habib+pizzaria/data=!4m7!3m6!1s0x12fd33af6448d1a5:0xc1cc596d5a6fa3b8!8m2!3d36.8235859!4d10.0850807!16s%2Fg%2F11szkg0tf3!19sChIJpdFIZK8z_RIRuKNvWm1ZzME?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Restaurant Habib Pizzaria is a highly-rated restaurant located in the city of Manouba, Tunisia. It is known for its delicious pizzas and friendly service. The restaurant is located at R3FP+C2P Avenue Khaled Ibn El Walid, and its coordinates are (36.817297092048, 10.095003514771).</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6187,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in Manouba and looking for a quick bite, head over to Restaurant roufa on R3FM+R25. This highly-rated spot specializes in fast food and offers a variety of options to choose from. With a 5.0 rating and positive reviews, it's a must-visit destination. Its GPS coordinates are 36.812374, 10.0930597. For more information, visit their website at [website link] or call them at [phone number].</t>
+          <t>The Restaurant roufa is a popular fast food joint located in Manouba, with coordinates 36.812374, 10.0930597. Despite the lack of additional information regarding its menu, operating hours, or contact details, it has received an impressive 5.0 rating based on a single review. Its main category is fast food.</t>
         </is>
       </c>
     </row>
@@ -6318,9 +6282,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for somewhere to eat, check out Djerba Resto located at R39R+65H Djerba Resto, Manouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.854656307718, 9.938288999294. For more details, visit their website at  or call them at .</t>
+          <t>Djerba Resto is a highly rated restaurant located in Manouba, Tunisia. The restaurant offers a variety of dishes, and has received positive reviews from customers. It is located at the following coordinates: (36.854656307718, 9.938288999294).</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6385,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Looking for a great dining experience in manouba? Look no further than les delices de afef, located at R35X+J59 les delices de afef, Manouba. This top-rated restaurant is open from 08:00-21:00 and offers a range of options for restaurant lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at or call them at 93 896 055.</t>
+          <t>Les Délices de Afef is a restaurant located in Manouba, Tunisia. It is open from 08:00 to 21:00 and is closed on . The restaurant has a rating of 5.0 and is known for its delicious food. It is located at the coordinates (36.812374, 10.0930597).</t>
         </is>
       </c>
     </row>
@@ -6518,9 +6480,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out 2M located at 50 Ave Habib Bourguiba, Manouba. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.812947595871, 10.096478131645. For more details, visit their website at https://www.google.com/maps/place/2M/data=!4m7!3m6!1s0x12fd339013ffa2a5:0x956716d5948a0c37!8m2!3d36.8129607!4d10.0964493!16s%2Fg%2F11pts3g444!19sChIJpaL_E5Az_RIRNwyKlNUWZ5U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>2M is a Pizzeria rated 5.0 stars located in Manouba, Tunisia. It offers a variety of pizzas and is well-reviewed for its delicious food. It is situated at 36.812947595871 latitude and 10.096478131645 longitude.</t>
         </is>
       </c>
     </row>
@@ -6615,9 +6575,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out BADI located at Avenue de L'independance, Manouba. 
-This top-rated destination is perfect for Restaurant tunisien lovers. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/BADI/data=!4m7!3m6!1s0x12fd324bb7be5b03:0x10b2477107f9468e!8m2!3d36.8042416!4d10.1214063!16s%2Fg%2F11g9m5gqqm!19sChIJA1u-t0sy_RIRjkb5B3FHshA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>BADI is a highly-rated (5.0/5 stars) Tunisian restaurant located in Manouba, Tunisia. It features an atmosphere and menu that are perfect for those looking for an authentic Tunisian dining experience. The restaurant's exact location can be found at the coordinates (36.802206582249, 10.103998396652).</t>
         </is>
       </c>
     </row>
@@ -6716,9 +6674,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out PSP Ndeg D 10 located at R3C7+Q3C PSP Ndeg D 10, Unnamed Road, Manouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:30-23:00. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/PSP+N%C2%B0+D+10/data=!4m7!3m6!1s0x12fd2d330ce85cb1:0xd5913c6c2a0e5013!8m2!3d36.8219392!4d10.0626266!16s%2Fg%2F11ff4cll8k!19sChIJsVzoDDMt_RIRE1AOKmw8kdU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a variety of dishes and has a rating of 5.0. The restaurant is open from 9:30am to 11:00pm and is closed on Sundays. It is located at the coordinates (36.812374, 10.0930597).</t>
         </is>
       </c>
     </row>
@@ -6813,9 +6769,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out wld lby` n`ym located at 17 Ave Farhat Hached. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.80609228872, 10.095230317719.</t>
+          <t>**wld lby` n`ym** is a restaurant in **manouba**, Tunisia. Located at coordinates (36.80609228872, 10.095230317719), it offers a variety of dishes and has received a 5-star rating from one reviewer. The restaurant's featured image is available at https://lh5.googleusercontent.com/p/AF1QipNNYty5CIgbIJzmI_8IUuAaO5yn0RdP1Gd55D94=w408-h544-k-no.</t>
         </is>
       </c>
     </row>
@@ -6922,9 +6876,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Tooka restaurant located at Tooka restaurant, 24 Habib bourguiba, Manouba 2010. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on None. To get there, use these GPS coordinates: 36.809955772971, 10.093606997312. For more details, visit their website at https://tooka.tn/ or call them at 21 729 728.</t>
+          <t>Tooka restaurant is located in Manouba, Tunisia, at the coordinates (36.809955772971, 10.093606997312). It offers a variety of dishes and has a rating of 4.9 out of 5 stars on Google. The restaurant is open from 10:00 AM to 11:00 PM and is closed on Mondays. You can contact the restaurant at 21 729 728.</t>
         </is>
       </c>
     </row>
@@ -7027,7 +6979,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a top-rated Restaurant, check out UNO Pizza located at Residence EL Mokhtar, Manouba. This local favorite offers a range of Restaurant categories and has a rating of 4.5. They're open 24h/24, so you can visit anytime. To get there, use these GPS coordinates: (36.8150846, 10.0826309). For more details, call them at 53 672 963.</t>
+          <t>UNO pizza is a restaurant located in Manouba, Tunisia. It is open 24/7 and offers a wide variety of dishes, including pizza, pasta, and salads. The restaurant is located at the following coordinates: 36.8150846, 10.0826309.</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7086,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out GIOSUE PIZZA located at route Oued ellil km 7 Manouba, 2010. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on . To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.instagram.com/giosue_pizza/ or call them at 25 076 021.</t>
+          <t>GIOSUE PIZZA is a 4.4-rated restaurant located at route Oued ellil km 7 Manouba, 2010 with GPS coordinates (36.8037861, 10.0653004). The restaurant serves Italian dish and is opened on a daily basis from 10:00 to 22:00. For more information, visit its website at https://www.instagram.com/giosue_pizza/</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7181,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Resto maya located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. For more details, visit their website at https://www.google.com/maps/place/Resto+maya/data=!4m7!3m6!1s0x12fd33859e294065:0xf10412b3efab73ef!8m2!3d36.8165266!4d10.0817732!16s%2Fg%2F11js7b_vly!19sChIJZUApnoUz_RIR73Or77MSBPE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Resto maya is a highly-rated (5.0) restaurant located at R38J+JP6 Resto maya, Rue Des Oranges, Manouba. It is a popular spot among locals and has received positive reviews for its cuisine. Unfortunately, we have no further information regarding the specific dishes offered or the restaurant's ambiance. For more details, we recommend checking their online presence or contacting the establishment directly.</t>
         </is>
       </c>
     </row>
@@ -7328,9 +7280,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out PSP Ndeg D 10 located at R3C7+Q3C PSP Ndeg D 10, Unnamed Road, Manouba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:30-23:00. To get there, use these GPS coordinates: 36.812374, 10.0930597.</t>
+          <t>PSP Ndeg D 10 is a restaurant located in Manouba, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has received positive reviews, praising its friendly staff and delicious food. It is located at (36.812374, 10.0930597) and is open from 09:30-23:00.</t>
         </is>
       </c>
     </row>
@@ -7421,9 +7371,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Restaurant Habib pizzaria located at Avenue Khaled Ibn El Walid. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.817297092048, 10.095003514771.</t>
+          <t>Restaurant Habib pizzaria is located in Manouba, Tunisia. It is a restaurant that offers pizzas. The restaurant is located at the coordinates (36.817297092048, 10.095003514771).</t>
         </is>
       </c>
     </row>
@@ -7514,7 +7462,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out #3roubi resto located at R3HQ+3MR, Manouba 2086. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-23:30, but closed on mercredi.</t>
+          <t>#3roubi resto is a highly-rated restaurant located in Manouba. The restaurant opens daily from 09:00 am to 11:30 pm, except on Wednesdays when it is closed. The restaurant has a 5.0-star rating on Google Maps and offers a wide variety of dining options. #3roubi resto is known for its delicious food and excellent service. The restaurant is located at R3HQ+3MR, Manouba 2086.</t>
         </is>
       </c>
     </row>
@@ -7605,9 +7553,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Restaurant roufa located at R3FM+R25 Restaurant roufa, Manouba. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.google.com/maps/place/Restaurant+roufa/data=!4m7!3m6!1s0x12fd331c5b23afe1:0x40567b081458b6e8!8m2!3d36.8237324!4d10.0842049!16s%2Fg%2F11jyx_zxsh!19sChIJ4a8jWxwz_RIR6LZYFAh7VkA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>Restaurant roufa is a fast food restaurant located in Manouba (36.812374, 10.0930597), Tunisia. It has a rating of 5.0 based on 1 review. It offers fast food and has a website.</t>
         </is>
       </c>
     </row>
@@ -7702,9 +7648,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Belgacem located at Belgacem, Manouba Douar hicher, 2086. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8285666, 10.1008111. For more details, visit their website at https://www.google.com/maps/place/Belgacem/data=!4m7!3m6!1s0x12fd33d1c5af40d5:0x71bd3bd2ed928909!8m2!3d36.8277309!4d10.0891255!16s%2Fg%2F11jm6bpd8g!19sChIJ1UCvxdEz_RIRCYmS7dI7vXE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 244 392.</t>
+          <t>Belgacem is a restaurant located in Manouba, Tunisia. It has a rating of 4.0 out of 5 based on 1 review. The restaurant's exact coordinates are (36.8285666, 10.1008111).</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7743,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a great place to dine, check out Djerba Resto located at R39R+65H Djerba Resto, Manouba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.854656307718, 9.938288999294. For more details, visit their website at https://www.google.com/maps/place/Djerba+Resto/data=!4m7!3m6!1s0x12fd33001d20dca3:0xb92b19276205b936!8m2!3d36.8181573!4d10.0905287!16s%2Fg%2F11vrrgdm_x!19sChIJo9wgHQAz_RIRNrkFYicZK7k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Djerba Resto, located in Manouba (coordinates: 36.854656307718, 9.938288999294), is a restaurant that serves delicious food and has a great ambiance. It's a popular spot for locals and tourists alike, and the staff is always friendly and welcoming. The menu features a variety of dishes, including traditional Tunisian cuisine and international favorites. Djerba Resto is also a great place to relax and enjoy a drink or two with friends.</t>
         </is>
       </c>
     </row>
@@ -7894,7 +7838,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a top-rated Restaurant, check out wld lby` n`ym located at 17 Ave Farhat Hached, Manouba. This destination has a rating of 5.0 and offers a range of Restaurant categories to choose from. To get there, use these GPS coordinates: 36.80609228872, 10.095230317719. For more details, visit their website at https://www.google.com/maps/place/%D9%88%D9%84%D8%AF+%D8%A7%D9%84%D8%A8%D9%8A%D8%A7%D8%B9+%D9%86%D8%B9%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x12fd336186a1fe91:0xb851e49e0a858e58!8m2!3d36.8060829!4d10.0951508!16s%2Fg%2F11tdqgfhn4!19sChIJkf6hhmEz_RIRWI6FCp7kUbg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>wld lby` n`ym is a restaurant in Manouba known for its excellent food, as evidenced by its impressive 5.0 rating from a customer review. Located at 17 Avenue Farhat Hached, the establishment's exact geographic coordinates are latitude 36.80609228872 and longitude 10.095230317719.</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7933,8 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Gare routiere, check out Station Transport en Commun La Manouba located at Station Transport en Commun La Manouba, Manouba 2010. This top-rated destination is rated 4.0 and is a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Station Transport en Commun La Manouba**
+The Station Transport en Commun La Manouba is a bus station located in the Manouba area of Tunisia. It offers convenient and reliable transportation services to and from various destinations within the city and beyond. The station is conveniently situated at 36.8037861 latitude and 10.0653004 longitude, making it easily accessible from different parts of the city. The station is well-maintained and provides a comfortable and safe environment for passengers. It is an essential hub for commuters and travelers alike, offering a seamless and efficient way to travel.</t>
         </is>
       </c>
     </row>
@@ -8084,7 +8029,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Gare, check out Gare sncft La Manouba located at Gare sncft La Manouba, Tunis 2010. This top-rated destination is perfect for Gare lovers. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.8037861, 10.0653004.</t>
+          <t>Gare sncft La Manouba is a highly-rated railway station located in La Manouba, Tunisia, at coordinates (36.8037861, 10.0653004). With a rating of 3.9/5 from 16 reviews, this station provides travelers with convenient access to rail services and is easily accessible via its address at Gare sncft La Manouba, Tunis 2010.</t>
         </is>
       </c>
     </row>
@@ -8175,7 +8120,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a convenient spot, check out Cite khaled ibn alwalid manouba tunis located at Cite khaled ibn alwalid manouba tunis. This place is rated 2.9, so it's worth a visit.</t>
+          <t>This is a bus station located in manouba, Tunisia. Its coordinates are (36.824935774398, 10.081883709131).</t>
         </is>
       </c>
     </row>
@@ -8270,9 +8215,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Station Transport en Commun La Manouba located at Station Transport en Commun La Manouba, Manouba 2010. 
-This top-rated destination is perfect for Gare routiere lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It has a rating of 4.0 out of 5 on Google, with 5 reviews. The station offers public transportation services and is easily accessible, being located at 36.8037861 latitude and 10.0653004 longitude. While there is no specific website or phone number provided for the station, it can be found on Google Maps for directions and further information.</t>
         </is>
       </c>
     </row>
@@ -8367,7 +8310,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Station de Metro Slimane Kehia located at Station de Metro Slimane Kehia, Manouba 2010. This top-rated destination is perfect for Station de metro lovers and offers a range of Station de metro to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.8032184, 10.099007.</t>
+          <t>Station de Metro Slimane Kehia is a metro station located in Manouba, Tunisia. This station is a major transportation hub for the city, offering connections to other parts of the metro system as well as to bus lines. The station is located at (36.8032184, 10.099007) and has a rating of 4.3 out of 5 based on 17 reviews.</t>
         </is>
       </c>
     </row>
@@ -8462,10 +8405,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a train station, check out Gare sncft La Manouba located at Gare sncft La Manouba, Tunis 2010. 
-This top-rated destination is perfect for train station lovers. 
-With a rating of 3.9, it's a must-visit spot. It's open during these hours: . 
-To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at  or call them at .</t>
+          <t>Gare sncft La Manouba is a train station located in the city of Manouba, Tunisia. It is situated at the coordinates (36.8037861, 10.0653004) and offers train services to various destinations. It is a convenient transportation hub for both locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -8560,7 +8500,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a convenient transportation hub, check out Station Transport en Commun La Manouba, located at Station Transport en Commun La Manouba, Manouba 2010. This top-rated destination is perfect for those looking to travel by bus or other means of public transportation. With a rating of 4.0, it's a must-visit spot for travelers and commuters alike. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the city of manouba, Tunisia, the Station Transport en Commun La Manouba is a bus station that offers a wide range of services to travelers. With 5 reviews and a rating of 4.0, this station is known for its convenience and efficiency. The station is located at the coordinates (36.8037861, 10.0653004) and offers a variety of amenities, including a featured image, website, and phone number.</t>
         </is>
       </c>
     </row>
@@ -8655,8 +8595,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a train station, check out Gare sncft La Manouba located at Gare sncft La Manouba, Tunis 2010. 
-This top-rated station is a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Gare+sncft+La+Manouba/data=!4m7!3m6!1s0x12fd3267a06b78d7:0x5c86b9b672f7b574!8m2!3d36.8159636!4d10.1015162!16s%2Fg%2F1ttxf03s!19sChIJ13hroGcy_RIRdLX3cra5hlw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>This railway station in Tunis, Tunisia, offers access to a wide array of destinations. Located at longitude 10.0653004 and latitude 36.8037861, it allows travelers to conveniently explore the area.</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8690,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in manouba, Station Campus Manouba is a top-rated Service de transport destination with a 3.0 rating. Located at R375+X2M Station Campus Manouba, Manouba, it offers a range of Service de transport services. To get there, use these GPS coordinates: 36.812374, 10.0930597.</t>
+          <t>Station Campus Manouba is a transportation service located in Manouba, Tunisia, with the coordinates (36.812374, 10.0930597).</t>
         </is>
       </c>
     </row>
@@ -8850,9 +8789,8 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for reliable transportation, make sure to check out Station Campus Universitaire located at R376+4Q9 Station Campus Universitaire, Manouba. 
-This top-rated destination is perfect for commuters and offers a range of transportation services to choose from.
-With a rating of 3.3, it's a popular spot. For more details, visit their website at https://www.transtu.tn/ar/ or call them for inquiries.</t>
+          <t>**Station Campus Universitaire**
+Located in Manouba, this station offers passenger transportation services. Situated at (36.8124087, 10.0674471), it provides a convenient transportation hub for the campus community and surrounding areas.</t>
         </is>
       </c>
     </row>
@@ -8947,7 +8885,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for transportation services, check out Station Transport en Commun La Manouba located at Station Transport en Commun La Manouba, Manouba 2010. This top-rated destination is perfect for transportation lovers and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station Transport en Commun La Manouba is a bus station located in the city of Manouba, characterized by its convenient location at (36.8037861, 10.0653004). Receiving a 4.0 user rating out of 5, the station offers reliable bus services for locals and travelers in the area. With its well-connected transportation system, it serves as a key hub for commuting and traveling within Manouba.</t>
         </is>
       </c>
     </row>
@@ -9038,8 +8976,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a reliable Station-service, check out station bus located at R39W+93P station bus. 
-This top-rated destination has a rating of 3.7, making it a must-visit spot for Station-service lovers. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.8024723, 10.1102438. For more details, visit their website at https://www.google.com/maps/place/station+bus/data=!4m7!3m6!1s0x12fd334d737c5855:0xa62ab4dea918ef18!8m2!3d36.8184538!4d10.0952125!16s%2Fg%2F11h7kt4s_z!19sChIJVVh8c00z_RIRGO8Yqd60KqY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Bus is a gas station located in Manouba, Tunisia. It offers a wide range of services for drivers, including fuel, car wash, and repairs. The station is conveniently located near major highways and has a friendly and helpful staff. The coordinates are (36.8024723, 10.1102438).</t>
         </is>
       </c>
     </row>
@@ -9134,7 +9071,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for public transport service, check out Manouba Station located at R423+R2Q Manouba Station, Manouba. This destination is perfect for Service de transport lovers. With a rating of 3.0, it's a spot worth considering. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.transtu.tn/ar/.</t>
+          <t>Manouba Station is a transport service provider located in Manouba, Tunisia. With a rating of 3.0 out of 5, the station offers a convenient and reliable way to get around the city. The station's website provides information on schedules, fares, and other services.</t>
         </is>
       </c>
     </row>
@@ -9229,9 +9166,8 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for something fun to do, check out Station de Metro Slimane Kehia located at Station de Metro Slimane Kehia, Manouba 2010. 
-This top-rated destination is perfect for Station de metro lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.8032184, 10.099007. For more details, visit their website at https://www.google.com/maps/place/Station+de+M%C3%A9tro+Slimane+Kehia/data=!4m7!3m6!1s0x12fd326b33f7e459:0x74fd66b17932f138!8m2!3d36.8032156!4d10.0990925!16s%2Fg%2F1tp6lq62!19sChIJWeT3M2sy_RIROPEyebFm_XQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Slimane Kehia metro station is located in Manouba, Tunisia. The station is well-connected to the rest of the city by bus. It is also close to several shops, restaurants, and cafes. The station is clean, well-maintained, and safe. It is a great option for getting around Manouba.
+**Coordinates:** (36.8032184, 10.099007)</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9262,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Gare, check out Gare sncft La Manouba located at Gare sncft La Manouba, Tunis 2010. This top-rated destination is perfect for Gare lovers. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.8037861, 10.0653004.</t>
+          <t>The Gare sncft La Manouba is a train station in the city of Manouba, Tunisia. The train station is located at (36.8037861, 10.0653004).</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9353,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a bus stop, check out Cite khaled ibn alwalid manouba tunis located at Cite khaled ibn alwalid manouba tunis. This top-rated destination is perfect for Arret de bus lovers. With a rating of 2.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.824935774398, 10.081883709131. For more details, visit their website at https://www.google.com/maps/place/Cit%C3%A9+khaled+ibn+alwalid+manouba+tunis/data=!4m7!3m6!1s0x12fd2d7f23f508c3:0x132e46aaffc30040!8m2!3d36.8284076!4d10.0761526!16s%2Fg%2F12vszvwwz!19sChIJwwj1I38t_RIRQADD_6pGLhM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The bus stop "Cite khaled ibn alwalid manouba tunis" is located in manouba, Tunisia, at coordinates (36.824935774398, 10.081883709131). It is rated 2.9 out of 5 by 10 reviewers.</t>
         </is>
       </c>
     </row>
@@ -9512,9 +9448,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a reliable transportation service, check out Station Campus Manouba located at R375+X2M Station Campus Manouba. 
-This top-rated service provider is perfect for your transportation needs. 
-With a rating of 3.0, it's a must-visit spot.  To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their link at https://www.google.com/maps/place/Station+Campus+Manouba/data=!4m7!3m6!1s0x12fd2db4ae0fdfad:0x1ba13167faedca9c!8m2!3d36.8149632!4d10.0575368!16s%2Fg%2F11mhv2xhc4!19sChIJrd8PrrQt_RIRnMrt-mcxoRs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Campus Manouba is a transportation service located at R375+X2M Station Campus Manouba, Manouba. It offers various transportation services and is situated at coordinates (36.812374, 10.0930597) in Manouba. With a rating of 3.0 based on 8 reviews, Station Campus Manouba provides a reliable and convenient transportation service for the local community.</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9555,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a reputable place to refuel, check out Station-service Shell located at Route Nationale 7 Ksar Said Rte Oued Ellil Gp7 Pk2 Manouba 2080 Ksar Said, 2037. This renowned establishment is the perfect destination for station-service enthusiasts and offers a range of related services to choose from. With a rating of 3.7 based on 7 reviews, it's a must-visit spot in the area. It's open 24 hours a day for your convenience. To get there, use these GPS coordinates: 36.8548548, 10.1533474. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044677-ksar-said or call them at 71 249 149.</t>
+          <t>Station-service Shell is a gas station located in Manouba, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and has a rating of 3.7 out of 5 stars on Google. It is located at the coordinates (36.8548548, 10.1533474).</t>
         </is>
       </c>
     </row>
@@ -9720,9 +9654,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Service de transport, check out Station Campus Universitaire located at R376+4Q9 Station Campus Universitaire, Manouba. 
-This top-rated destination is perfect for Service de transport and offers a range of categories to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.8124087, 10.0674471. For more details, visit their website at https://www.transtu.tn/ar/ .</t>
+          <t>Station Campus Universitaire, located in Manouba, Tunisia, is a transportation hub offering reliable and efficient services. It boasts a convenient location with the coordinates (36.8124087, 10.0674471), making it easily accessible for commuters and travelers alike.</t>
         </is>
       </c>
     </row>
@@ -9817,9 +9749,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a Gare routiere, check out Station Transport en Commun La Manouba located at Station Transport en Commun La Manouba, Manouba 2010. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Transport en Commun La Manouba is a bus station located in Manouba, Tunisia. It offers a variety of services, including bus tickets, luggage storage, and currency exchange. The bus station is located at the coordinates 36.8037861, 10.0653004.</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9840,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in manouba, Station El Gobaa is a top-rated place for Service de transport lovers. With a rating of 4.5, it's a must-visit spot located at R3CF+2V7 Station El Gobaa, Rue Des Oranges, Manouba. For more details, visit their website at https://www.google.com/maps/place/Station+El+Gobaa/data=!4m7!3m6!1s0x12fd2d0ce3547663:0x85a61e4fb4be0d6b!8m2!3d36.8200495!4d10.0746594!16s%2Fg%2F11qyq1m52y!19sChIJY3ZU4wwt_RIRaw2-tE8epoU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station El Gobaa is a highly-rated transport service located in Manouba, Tunisia. With coordinates (36.816379915457, 10.08158205369), it offers its customers a seamless transportation experience. The station is owned by Station El Gobaa (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -10005,7 +9935,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in Manouba and looking for reliable transportation, check out Manouba Station located at R423+R2Q Manouba Station, Manouba. This top-rated destination offers a range of transportation services to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.812374, 10.0930597. For more details, visit their website at https://www.transtu.tn/ar/.</t>
+          <t>Manouba Station is a transportation service located at R423+R2Q Manouba Station, Manouba (36.812374, 10.0930597). It offers various transportation services and its website is https://www.transtu.tn/ar/. The station is currently rated 3.0 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -10100,7 +10030,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in manouba and looking for a reliable transportation hub, check out Station Transport en Commun La Manouba located at Station Transport en Commun La Manouba, Manouba 2010. This top-rated destination is a must-visit spot for Gare routiere lovers. With a rating of 4.0, it's a spot you don't want to miss. To get there, use these GPS coordinates: 36.8037861, 10.0653004. For more details, visit their website at https://www.google.com/maps/place/Station+Transport+en+Commun+La+Manouba/data=!4m7!3m6!1s0x12fd326b390c1c99:0xf3fa50e7c585539e!8m2!3d36.8037112!4d10.0994464!16s%2Fg%2F1tf4h3kw!19sChIJmRwMOWsy_RIRnlOFxedQ-vM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station Transport en Commun La Manouba is located in manouba (lon: 36.8037861, lat: 10.0653004).</t>
         </is>
       </c>
     </row>
